--- a/biology/Histoire de la zoologie et de la botanique/Carl_Christian_Mez/Carl_Christian_Mez.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Christian_Mez/Carl_Christian_Mez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Christian Mez est un botaniste allemand, né le 26 mars 1866 à Fribourg-en-Brisgau et mort le 8 janvier 1944 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Mez est issu d’une famille d’industriels de Fribourg. Il est le petit-fils de l’homme politique Carl Mez (de) (1808-1877). Adolescent, élève dans un gymnasium, il s’intéresse à la botanique et fait paraître un article sur un hybride du genre Inula.
 Il étudie d’abord dans l’université de sa ville natale de 1883, à 1884 avant de partir à Berlin. Il revient à Fribourg en 1886. Il soutient une thèse sur les Lauraceae à Berlin. Après avoir reçu son habilitation, Mez travaille brièvement au musée de botanique de Berlin avant de devenir Privatdozent à Breslau à partir de 1890. En 1900, Mez devient professeur titulaire de systématique végétale et de pharmacognosie à l’université Martin-Luther de Halle-Wittemberg à Halle. En 1910, il est nommé professeur de physiologie végétale et dirige le jardin botanique près de Königsberg (Prusse). Il est nommé professeur émérite en 1935.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lauraceae Americanae, monographice descripsit / - Berlin, 1889. Jahrbuch des königlichen botanischen Gartens und des botanischen Museums; Bd. 5
 Das Mikroskop und seine Anwendung : ein Leitfaden bei mikroskopischen Untersuchungen für Apotheker, Aerzte, Medicinalbeamte, Techniker, Gewerbtreibende, etc.- 8., stark verm. Aufl. - Berlin : 1899
